--- a/quizsheets/mada_data_analysis_intro_student.xlsx
+++ b/quizsheets/mada_data_analysis_intro_student.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>To run the R script called "Data Cleaning.R" you need to have the package "nloptr" installed.</t>
+          <t>To run the R script called "Data Cleaning.R" which is part of Dr. McKay's research paper, you need to have the package "nloptr" installed.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
